--- a/src/test/resources/014 Many-teams-many-projects_team3extracted_v2.xlsx
+++ b/src/test/resources/014 Many-teams-many-projects_team3extracted_v2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ProjektPortfolio\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="19320" windowHeight="8340" tabRatio="429"/>
   </bookViews>
@@ -11,15 +16,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="33">
-  <si>
-    <t>Team1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
   <si>
     <t>month</t>
   </si>
@@ -120,7 +122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,6 +224,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -498,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -510,20 +515,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>0.8</v>
@@ -531,7 +536,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -542,18 +547,18 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -758,89 +763,89 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
         <v>20</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>21</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>22</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>23</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>24</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>25</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>26</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>27</v>
-      </c>
-      <c r="N36" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -881,7 +886,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1">
         <v>42705</v>
@@ -908,24 +913,24 @@
         <v>42705</v>
       </c>
       <c r="K39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <v>27</v>
@@ -966,7 +971,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -985,81 +990,81 @@
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="K44" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="L44" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="M44" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -1067,11 +1072,9 @@
         <v>42461</v>
       </c>
       <c r="B46" s="6">
-        <f>14.75/5</f>
         <v>2.95</v>
       </c>
       <c r="C46" s="6">
-        <f>14.75/5</f>
         <v>2.95</v>
       </c>
       <c r="D46" s="6">
@@ -1084,15 +1087,12 @@
         <v>0.25</v>
       </c>
       <c r="G46" s="6">
-        <f>14.75/5</f>
         <v>2.95</v>
       </c>
       <c r="H46" s="6">
-        <f>14.75/5</f>
         <v>2.95</v>
       </c>
       <c r="I46" s="6">
-        <f>14.75/5</f>
         <v>2.95</v>
       </c>
       <c r="J46" s="6">
@@ -1113,11 +1113,9 @@
         <v>42491</v>
       </c>
       <c r="B47" s="6">
-        <f>15/6</f>
         <v>2.5</v>
       </c>
       <c r="C47" s="6">
-        <f>15/6</f>
         <v>2.5</v>
       </c>
       <c r="D47" s="6">
@@ -1127,19 +1125,15 @@
         <v>0</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" ref="F47:I48" si="0">15/6</f>
         <v>2.5</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="I47" s="6">
-        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="J47" s="6">
@@ -1161,11 +1155,9 @@
         <v>42522</v>
       </c>
       <c r="B48" s="6">
-        <f>15/6</f>
         <v>2.5</v>
       </c>
       <c r="C48" s="6">
-        <f>15/6</f>
         <v>2.5</v>
       </c>
       <c r="D48" s="6">
@@ -1175,19 +1167,15 @@
         <v>0</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="I48" s="6">
-        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="J48" s="7">
@@ -1209,11 +1197,9 @@
         <v>42552</v>
       </c>
       <c r="B49" s="6">
-        <f>10.5/6</f>
         <v>1.75</v>
       </c>
       <c r="C49" s="6">
-        <f>10.5/6</f>
         <v>1.75</v>
       </c>
       <c r="D49" s="6">
@@ -1223,19 +1209,15 @@
         <v>0</v>
       </c>
       <c r="F49" s="6">
-        <f>10.5/6</f>
         <v>1.75</v>
       </c>
       <c r="G49" s="6">
-        <f>10.5/6</f>
         <v>1.75</v>
       </c>
       <c r="H49" s="6">
-        <f>10.5/6</f>
         <v>1.75</v>
       </c>
       <c r="I49" s="6">
-        <f>10.5/6</f>
         <v>1.75</v>
       </c>
       <c r="J49" s="7">
@@ -1257,11 +1239,9 @@
         <v>42583</v>
       </c>
       <c r="B50" s="6">
-        <f>7.5/6</f>
         <v>1.25</v>
       </c>
       <c r="C50" s="6">
-        <f>7.5/6</f>
         <v>1.25</v>
       </c>
       <c r="D50" s="6">
@@ -1271,19 +1251,15 @@
         <v>0</v>
       </c>
       <c r="F50" s="6">
-        <f>7.5/6</f>
         <v>1.25</v>
       </c>
       <c r="G50" s="6">
-        <f>7.5/6</f>
         <v>1.25</v>
       </c>
       <c r="H50" s="6">
-        <f>7.5/6</f>
         <v>1.25</v>
       </c>
       <c r="I50" s="6">
-        <f>7.5/6</f>
         <v>1.25</v>
       </c>
       <c r="J50" s="7">
@@ -1305,11 +1281,9 @@
         <v>42614</v>
       </c>
       <c r="B51" s="6">
-        <f>15/6</f>
         <v>2.5</v>
       </c>
       <c r="C51" s="6">
-        <f>15/6</f>
         <v>2.5</v>
       </c>
       <c r="D51" s="6">
@@ -1319,19 +1293,15 @@
         <v>0</v>
       </c>
       <c r="F51" s="6">
-        <f>15/6</f>
         <v>2.5</v>
       </c>
       <c r="G51" s="6">
-        <f>15/6</f>
         <v>2.5</v>
       </c>
       <c r="H51" s="6">
-        <f>15/6</f>
         <v>2.5</v>
       </c>
       <c r="I51" s="6">
-        <f>15/6</f>
         <v>2.5</v>
       </c>
       <c r="J51" s="7">
@@ -1353,11 +1323,9 @@
         <v>42644</v>
       </c>
       <c r="B52" s="6">
-        <f>10.5/6</f>
         <v>1.75</v>
       </c>
       <c r="C52" s="6">
-        <f>10.5/6</f>
         <v>1.75</v>
       </c>
       <c r="D52" s="6">
@@ -1367,19 +1335,15 @@
         <v>0</v>
       </c>
       <c r="F52" s="6">
-        <f>10.5/6</f>
         <v>1.75</v>
       </c>
       <c r="G52" s="6">
-        <f>10.5/6</f>
         <v>1.75</v>
       </c>
       <c r="H52" s="6">
-        <f>10.5/6</f>
         <v>1.75</v>
       </c>
       <c r="I52" s="6">
-        <f>10.5/6</f>
         <v>1.75</v>
       </c>
       <c r="J52" s="7">
@@ -1785,7 +1749,6 @@
         <v>0</v>
       </c>
       <c r="D62" s="9">
-        <f>15*0.8</f>
         <v>12</v>
       </c>
       <c r="E62" s="7">
@@ -1957,7 +1920,6 @@
         <v>0</v>
       </c>
       <c r="E66" s="9">
-        <f>15*0.8</f>
         <v>12</v>
       </c>
       <c r="F66" s="7">
@@ -2114,10 +2076,10 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -2142,49 +2104,49 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="I75" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="J75" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J75" s="4" t="s">
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K75" s="4" t="s">
+      <c r="L75" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L75" s="4" t="s">
+      <c r="M75" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M75" s="4" t="s">
+      <c r="N75" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="N75" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="5">

--- a/src/test/resources/014 Many-teams-many-projects_team3extracted_v2.xlsx
+++ b/src/test/resources/014 Many-teams-many-projects_team3extracted_v2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
   <si>
     <t>month</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>LV1871-Many-teams-many-projects-team3extracted</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -503,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -760,6 +763,23 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -1368,7 +1388,7 @@
         <v>1.5</v>
       </c>
       <c r="C53" s="6">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D53" s="6">
         <v>0</v>
@@ -1386,7 +1406,7 @@
         <v>1.5</v>
       </c>
       <c r="I53" s="6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J53" s="7">
         <v>0</v>
